--- a/Repositorio Agricultura/Chile/Estadísticas económicas/Precios anuales y frutas/Precios_hortalizas_27_octubre.xlsx
+++ b/Repositorio Agricultura/Chile/Estadísticas económicas/Precios anuales y frutas/Precios_hortalizas_27_octubre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Chile\Estadísticas económicas\Precios anuales y frutas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F118F-2126-4E5E-BB7E-D7EFEA7C4B99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C348E144-7417-4C11-8AFE-90130888BECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
